--- a/DatosMunicipios.xlsx
+++ b/DatosMunicipios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p2004\Documents\GitHub\CaixaEnginyers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294182BD-6344-4BC9-87A2-9B46772383D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1453871A-3C79-4C15-A6F1-FB76450F743F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1069,7 +1069,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1081,6 +1081,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1124,7 +1132,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1429,11 +1437,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K312"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K163" sqref="K163"/>
+    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -2827,7 +2839,7 @@
         <v>42.042375700000001</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>5</v>
       </c>
@@ -2855,8 +2867,9 @@
       <c r="I49">
         <v>42.119534799999997</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>5</v>
       </c>
@@ -2878,8 +2891,14 @@
       <c r="G50" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H50" s="2">
+        <v>2235833</v>
+      </c>
+      <c r="I50" s="2">
+        <v>41888889</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>5</v>
       </c>
@@ -2908,7 +2927,7 @@
         <v>41.876934200000001</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>5</v>
       </c>
@@ -2937,7 +2956,7 @@
         <v>41.939286799999998</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>5</v>
       </c>
@@ -2966,7 +2985,7 @@
         <v>41.900005800000002</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>5</v>
       </c>
@@ -2995,7 +3014,7 @@
         <v>41.910953300000003</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>5</v>
       </c>
@@ -3024,7 +3043,7 @@
         <v>41.9476741</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>5</v>
       </c>
@@ -3053,7 +3072,7 @@
         <v>41.754090400000003</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>5</v>
       </c>
@@ -3082,7 +3101,7 @@
         <v>41.940986899999999</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>5</v>
       </c>
@@ -3111,7 +3130,7 @@
         <v>41.990072499999997</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>5</v>
       </c>
@@ -3140,7 +3159,7 @@
         <v>41.993054899999997</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>5</v>
       </c>
@@ -3169,7 +3188,7 @@
         <v>41.995547000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>5</v>
       </c>
@@ -3198,7 +3217,7 @@
         <v>42.024334000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>5</v>
       </c>
@@ -3227,7 +3246,7 @@
         <v>41.980765900000002</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>5</v>
       </c>
@@ -3256,7 +3275,7 @@
         <v>42.026728800000001</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>5</v>
       </c>
@@ -6069,7 +6088,7 @@
         <v>42.2119833</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>4</v>
       </c>
@@ -6098,7 +6117,7 @@
         <v>42.241520749999999</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>4</v>
       </c>
@@ -6127,7 +6146,7 @@
         <v>42.304691499999997</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>4</v>
       </c>
@@ -6155,9 +6174,8 @@
       <c r="I163">
         <v>42.2309257</v>
       </c>
-      <c r="K163" s="3"/>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>4</v>
       </c>
@@ -6186,7 +6204,7 @@
         <v>42.235853300000002</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>4</v>
       </c>
@@ -6215,7 +6233,7 @@
         <v>42.233331</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>4</v>
       </c>
@@ -6244,7 +6262,7 @@
         <v>42.222498199999997</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>4</v>
       </c>
@@ -6273,7 +6291,7 @@
         <v>42.209509699999998</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>4</v>
       </c>
@@ -6302,7 +6320,7 @@
         <v>42195</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>4</v>
       </c>
@@ -6331,7 +6349,7 @@
         <v>42.224842500000001</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>4</v>
       </c>
@@ -6360,7 +6378,7 @@
         <v>42254</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>4</v>
       </c>
@@ -6389,7 +6407,7 @@
         <v>42.242434500000002</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>4</v>
       </c>
@@ -6418,7 +6436,7 @@
         <v>42.226933099999997</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>4</v>
       </c>
@@ -6447,7 +6465,7 @@
         <v>42.233351900000002</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>4</v>
       </c>
@@ -6476,7 +6494,7 @@
         <v>42.266806099999997</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>4</v>
       </c>
@@ -6505,7 +6523,7 @@
         <v>42.308734800000003</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>4</v>
       </c>

--- a/DatosMunicipios.xlsx
+++ b/DatosMunicipios.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p2004\Documents\GitHub\CaixaEnginyers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1453871A-3C79-4C15-A6F1-FB76450F743F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94C7C0B-BB44-4FA6-84D3-B7836D529FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1131,8 +1144,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1435,17 +1448,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K312"/>
+  <dimension ref="A1:M312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="L280" sqref="L280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1963,10 +1972,10 @@
         <v>33</v>
       </c>
       <c r="H18">
-        <v>10.343649900000001</v>
+        <v>1.9764683999999999</v>
       </c>
       <c r="I18">
-        <v>45.713980200000002</v>
+        <v>41.699821900000003</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -2514,10 +2523,10 @@
         <v>11</v>
       </c>
       <c r="H37">
-        <v>-3.7757218128017717E-2</v>
+        <v>2.2129021999999998</v>
       </c>
       <c r="I37">
-        <v>39.978209300000003</v>
+        <v>41.539844600000002</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -2839,7 +2848,7 @@
         <v>42.042375700000001</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>5</v>
       </c>
@@ -2867,9 +2876,8 @@
       <c r="I49">
         <v>42.119534799999997</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>5</v>
       </c>
@@ -2891,14 +2899,14 @@
       <c r="G50" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="2">
-        <v>2235833</v>
-      </c>
-      <c r="I50" s="2">
-        <v>41888889</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H50">
+        <v>2.2354563999999999</v>
+      </c>
+      <c r="I50">
+        <v>41.887016000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>5</v>
       </c>
@@ -2927,7 +2935,7 @@
         <v>41.876934200000001</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>5</v>
       </c>
@@ -2956,7 +2964,7 @@
         <v>41.939286799999998</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>5</v>
       </c>
@@ -2985,7 +2993,7 @@
         <v>41.900005800000002</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>5</v>
       </c>
@@ -3014,7 +3022,7 @@
         <v>41.910953300000003</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>5</v>
       </c>
@@ -3043,7 +3051,7 @@
         <v>41.9476741</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>5</v>
       </c>
@@ -3072,7 +3080,7 @@
         <v>41.754090400000003</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>5</v>
       </c>
@@ -3101,7 +3109,7 @@
         <v>41.940986899999999</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>5</v>
       </c>
@@ -3124,13 +3132,13 @@
         <v>11</v>
       </c>
       <c r="H58">
-        <v>2.3064464999999998</v>
+        <v>2.306718</v>
       </c>
       <c r="I58">
-        <v>41.990072499999997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+        <v>41.990059000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>5</v>
       </c>
@@ -3159,7 +3167,7 @@
         <v>41.993054899999997</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>5</v>
       </c>
@@ -3188,7 +3196,7 @@
         <v>41.995547000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>5</v>
       </c>
@@ -3217,7 +3225,7 @@
         <v>42.024334000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>5</v>
       </c>
@@ -3246,7 +3254,7 @@
         <v>41.980765900000002</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>5</v>
       </c>
@@ -3269,13 +3277,13 @@
         <v>11</v>
       </c>
       <c r="H63">
-        <v>2.2347147000000001</v>
+        <v>2.1750390999999998</v>
       </c>
       <c r="I63">
-        <v>42.026728800000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+        <v>41.980765900000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>5</v>
       </c>
@@ -3304,7 +3312,7 @@
         <v>42.065576</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>5</v>
       </c>
@@ -3333,7 +3341,7 @@
         <v>42.057841099999997</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>5</v>
       </c>
@@ -3362,7 +3370,7 @@
         <v>42.127281799999999</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>5</v>
       </c>
@@ -3391,7 +3399,7 @@
         <v>42.0630229</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>5</v>
       </c>
@@ -3414,13 +3422,13 @@
         <v>33</v>
       </c>
       <c r="H68">
-        <v>13.613957600000001</v>
+        <v>2.1610531000000002</v>
       </c>
       <c r="I68">
-        <v>41.720335800000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+        <v>42.111935299999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>5</v>
       </c>
@@ -3449,7 +3457,7 @@
         <v>42.1228239</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>5</v>
       </c>
@@ -3472,13 +3480,13 @@
         <v>11</v>
       </c>
       <c r="H70">
-        <v>0.3292099</v>
+        <v>2.2086111000000002</v>
       </c>
       <c r="I70">
-        <v>43.578663300000002</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+        <v>42.108727999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>5</v>
       </c>
@@ -3507,7 +3515,7 @@
         <v>42.085504800000002</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>5</v>
       </c>
@@ -3536,7 +3544,7 @@
         <v>41.952075700000002</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>5</v>
       </c>
@@ -3565,7 +3573,7 @@
         <v>41.9019288</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>5</v>
       </c>
@@ -3594,7 +3602,7 @@
         <v>41.868955800000002</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>5</v>
       </c>
@@ -3617,13 +3625,16 @@
         <v>11</v>
       </c>
       <c r="H75">
-        <v>2.3052283</v>
+        <v>2.1750390999999998</v>
       </c>
       <c r="I75">
-        <v>41.816809900000003</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41.980765900000002</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>5</v>
       </c>
@@ -3646,13 +3657,16 @@
         <v>11</v>
       </c>
       <c r="H76">
-        <v>1.7733927</v>
+        <v>2.1750390999999998</v>
       </c>
       <c r="I76">
-        <v>42.052320700000003</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41.980765900000002</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>5</v>
       </c>
@@ -3675,13 +3689,13 @@
         <v>33</v>
       </c>
       <c r="H77">
-        <v>2.2477049999999998</v>
+        <v>1.7653302</v>
       </c>
       <c r="I77">
-        <v>43.135120100000002</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+        <v>42.018172999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>5</v>
       </c>
@@ -3710,7 +3724,7 @@
         <v>42.0776191</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>5</v>
       </c>
@@ -3739,7 +3753,7 @@
         <v>42.127322550000002</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>5</v>
       </c>
@@ -3768,7 +3782,7 @@
         <v>42.1809467</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>5</v>
       </c>
@@ -3791,13 +3805,16 @@
         <v>33</v>
       </c>
       <c r="H81">
-        <v>1.8845377999999999</v>
+        <v>2.1750390999999998</v>
       </c>
       <c r="I81">
-        <v>42.166390200000002</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41.980765900000002</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>5</v>
       </c>
@@ -3820,13 +3837,16 @@
         <v>33</v>
       </c>
       <c r="H82">
-        <v>10.9240175</v>
+        <v>2.1750390999999998</v>
       </c>
       <c r="I82">
-        <v>45.491880700000003</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41.980765900000002</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>5</v>
       </c>
@@ -3855,7 +3875,7 @@
         <v>42.136913200000002</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>5</v>
       </c>
@@ -3878,13 +3898,16 @@
         <v>33</v>
       </c>
       <c r="H84">
-        <v>2.1166718000000002</v>
+        <v>2.1750390999999998</v>
       </c>
       <c r="I84">
-        <v>42.150627900000003</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41.980765900000002</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>5</v>
       </c>
@@ -3913,7 +3936,7 @@
         <v>42.1963139</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>5</v>
       </c>
@@ -3942,7 +3965,7 @@
         <v>42.135553600000001</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>5</v>
       </c>
@@ -3971,7 +3994,7 @@
         <v>42.1732169</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>5</v>
       </c>
@@ -4000,7 +4023,7 @@
         <v>42.1874392</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>5</v>
       </c>
@@ -4029,7 +4052,7 @@
         <v>42.203604400000003</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>5</v>
       </c>
@@ -4058,7 +4081,7 @@
         <v>42.223409699999998</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>5</v>
       </c>
@@ -4087,7 +4110,7 @@
         <v>42.249977999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>5</v>
       </c>
@@ -4116,7 +4139,7 @@
         <v>42.228759099999998</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>5</v>
       </c>
@@ -4145,7 +4168,7 @@
         <v>42.236512900000001</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>5</v>
       </c>
@@ -4174,7 +4197,7 @@
         <v>42.282600899999998</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>5</v>
       </c>
@@ -4203,7 +4226,7 @@
         <v>42.294635300000003</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>5</v>
       </c>
@@ -4458,10 +4481,10 @@
         <v>33</v>
       </c>
       <c r="H104">
-        <v>3.1737867</v>
+        <v>2.2139864</v>
       </c>
       <c r="I104">
-        <v>45.562246899999998</v>
+        <v>42.312730999999999</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -4603,10 +4626,10 @@
         <v>11</v>
       </c>
       <c r="H109">
-        <v>4.1128900000000002</v>
+        <v>2.6528719000000001</v>
       </c>
       <c r="I109">
-        <v>44.023099999999999</v>
+        <v>41.765469600000003</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -4696,7 +4719,7 @@
         <v>42.036432400000002</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>4</v>
       </c>
@@ -4725,7 +4748,7 @@
         <v>41.904911400000003</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>4</v>
       </c>
@@ -4754,7 +4777,7 @@
         <v>41.945102499999997</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>4</v>
       </c>
@@ -4783,7 +4806,7 @@
         <v>41.998369699999998</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>4</v>
       </c>
@@ -4806,13 +4829,16 @@
         <v>33</v>
       </c>
       <c r="H116">
-        <v>2.6790780999999999</v>
+        <v>2.1750390999999998</v>
       </c>
       <c r="I116">
-        <v>42.135899000000002</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41.980765900000002</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>4</v>
       </c>
@@ -4835,13 +4861,13 @@
         <v>11</v>
       </c>
       <c r="H117">
-        <v>-5.7722467999999996</v>
+        <v>2.6401121999999999</v>
       </c>
       <c r="I117">
-        <v>43.248816099999999</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+        <v>42.124412399999997</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>4</v>
       </c>
@@ -4870,7 +4896,7 @@
         <v>42.069443149999998</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>4</v>
       </c>
@@ -4899,7 +4925,7 @@
         <v>42.033200899999997</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>4</v>
       </c>
@@ -4928,7 +4954,7 @@
         <v>42.093883099999999</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>4</v>
       </c>
@@ -4957,7 +4983,7 @@
         <v>41.989789100000003</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>4</v>
       </c>
@@ -4986,7 +5012,7 @@
         <v>41.952356299999998</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>4</v>
       </c>
@@ -5015,7 +5041,7 @@
         <v>41.880101500000002</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>4</v>
       </c>
@@ -5038,13 +5064,16 @@
         <v>11</v>
       </c>
       <c r="H124">
-        <v>2.9909965097984879</v>
+        <v>2.1750390999999998</v>
       </c>
       <c r="I124">
-        <v>41.956352699999997</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41.980765900000002</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>4</v>
       </c>
@@ -5073,7 +5102,7 @@
         <v>41.940581300000012</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>4</v>
       </c>
@@ -5102,7 +5131,7 @@
         <v>42.022590999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>4</v>
       </c>
@@ -5125,13 +5154,13 @@
         <v>11</v>
       </c>
       <c r="H127">
-        <v>-75.045851499999998</v>
+        <v>2.4938967000000001</v>
       </c>
       <c r="I127">
-        <v>-6.8699697000000004</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+        <v>42.283914000000003</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>4</v>
       </c>
@@ -5160,7 +5189,7 @@
         <v>42.020787200000001</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>4</v>
       </c>
@@ -5189,7 +5218,7 @@
         <v>42.017296899999998</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>4</v>
       </c>
@@ -5218,7 +5247,7 @@
         <v>41.990079899999998</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>4</v>
       </c>
@@ -5247,7 +5276,7 @@
         <v>42.019609299999999</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>4</v>
       </c>
@@ -5276,7 +5305,7 @@
         <v>41.989362399999997</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>4</v>
       </c>
@@ -5305,7 +5334,7 @@
         <v>42.038826800000002</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>4</v>
       </c>
@@ -5334,7 +5363,7 @@
         <v>42.011136200000003</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>4</v>
       </c>
@@ -5363,7 +5392,7 @@
         <v>42.029637999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>4</v>
       </c>
@@ -5392,7 +5421,7 @@
         <v>42.028086999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>4</v>
       </c>
@@ -5421,7 +5450,7 @@
         <v>42.050054199999998</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>4</v>
       </c>
@@ -5450,7 +5479,7 @@
         <v>42.084156100000001</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>4</v>
       </c>
@@ -5479,7 +5508,7 @@
         <v>42.107168199999997</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>4</v>
       </c>
@@ -5502,13 +5531,16 @@
         <v>11</v>
       </c>
       <c r="H140">
-        <v>3.0555614000000002</v>
+        <v>2.1750390999999998</v>
       </c>
       <c r="I140">
-        <v>42.079886299999998</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41.980765900000002</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>4</v>
       </c>
@@ -5537,7 +5569,7 @@
         <v>42.104319799999999</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>4</v>
       </c>
@@ -5566,7 +5598,7 @@
         <v>42.0676956</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>4</v>
       </c>
@@ -5595,7 +5627,7 @@
         <v>42.0694953</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>4</v>
       </c>
@@ -6088,7 +6120,7 @@
         <v>42.2119833</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>4</v>
       </c>
@@ -6111,13 +6143,16 @@
         <v>11</v>
       </c>
       <c r="H161">
-        <v>2.4326305390037271</v>
+        <v>2.1750390999999998</v>
       </c>
       <c r="I161">
-        <v>42.241520749999999</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41.980765900000002</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>4</v>
       </c>
@@ -6146,7 +6181,7 @@
         <v>42.304691499999997</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>4</v>
       </c>
@@ -6175,7 +6210,7 @@
         <v>42.2309257</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>4</v>
       </c>
@@ -6204,7 +6239,7 @@
         <v>42.235853300000002</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>4</v>
       </c>
@@ -6233,7 +6268,7 @@
         <v>42.233331</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>4</v>
       </c>
@@ -6262,7 +6297,7 @@
         <v>42.222498199999997</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>4</v>
       </c>
@@ -6291,7 +6326,7 @@
         <v>42.209509699999998</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>4</v>
       </c>
@@ -6313,14 +6348,14 @@
       <c r="G168" t="s">
         <v>11</v>
       </c>
-      <c r="H168" s="2">
-        <v>2955</v>
-      </c>
-      <c r="I168" s="2">
-        <v>42195</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H168">
+        <v>2.9539293999999998</v>
+      </c>
+      <c r="I168">
+        <v>42.192922199999998</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>4</v>
       </c>
@@ -6349,7 +6384,7 @@
         <v>42.224842500000001</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>4</v>
       </c>
@@ -6371,14 +6406,17 @@
       <c r="G170" t="s">
         <v>11</v>
       </c>
-      <c r="H170" s="2">
-        <v>2996</v>
-      </c>
-      <c r="I170" s="2">
-        <v>42254</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H170">
+        <v>2.1750390999999998</v>
+      </c>
+      <c r="I170">
+        <v>41.980765900000002</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>4</v>
       </c>
@@ -6407,7 +6445,7 @@
         <v>42.242434500000002</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>4</v>
       </c>
@@ -6436,7 +6474,7 @@
         <v>42.226933099999997</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>4</v>
       </c>
@@ -6465,7 +6503,7 @@
         <v>42.233351900000002</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>4</v>
       </c>
@@ -6494,7 +6532,7 @@
         <v>42.266806099999997</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>4</v>
       </c>
@@ -6523,7 +6561,7 @@
         <v>42.308734800000003</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>4</v>
       </c>
@@ -6546,10 +6584,10 @@
         <v>11</v>
       </c>
       <c r="H176">
-        <v>-0.36856680000000003</v>
+        <v>3.1161930999999998</v>
       </c>
       <c r="I176">
-        <v>43.295754700000003</v>
+        <v>42.316100900000002</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -7016,7 +7054,7 @@
         <v>42.378745799999997</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>4</v>
       </c>
@@ -7045,7 +7083,7 @@
         <v>42.374391799999998</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>4</v>
       </c>
@@ -7068,13 +7106,16 @@
         <v>33</v>
       </c>
       <c r="H194">
-        <v>2.8000859999999999</v>
+        <v>2.1750390999999998</v>
       </c>
       <c r="I194">
-        <v>42.403907799999999</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41.980765900000002</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>4</v>
       </c>
@@ -7103,7 +7144,7 @@
         <v>42.423568500000002</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>4</v>
       </c>
@@ -7132,7 +7173,7 @@
         <v>42.2185591</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>4</v>
       </c>
@@ -7161,7 +7202,7 @@
         <v>42.173446800000001</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>4</v>
       </c>
@@ -7190,7 +7231,7 @@
         <v>42.185894900000001</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>4</v>
       </c>
@@ -7219,7 +7260,7 @@
         <v>42.251526599999998</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>4</v>
       </c>
@@ -7248,7 +7289,7 @@
         <v>42.2165982</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>4</v>
       </c>
@@ -7277,7 +7318,7 @@
         <v>42.3380996</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>4</v>
       </c>
@@ -7306,7 +7347,7 @@
         <v>42.2372601</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>4</v>
       </c>
@@ -7335,7 +7376,7 @@
         <v>42.072634700000002</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>4</v>
       </c>
@@ -7358,13 +7399,13 @@
         <v>33</v>
       </c>
       <c r="H204">
-        <v>-0.46562130000000002</v>
+        <v>3.1267566000000002</v>
       </c>
       <c r="I204">
-        <v>39.436667999999997</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41.951504700000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>4</v>
       </c>
@@ -7393,7 +7434,7 @@
         <v>42.037126999999998</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>4</v>
       </c>
@@ -7422,7 +7463,7 @@
         <v>42.000897500000001</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>4</v>
       </c>
@@ -7451,7 +7492,7 @@
         <v>42.044227499999998</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>4</v>
       </c>
@@ -7480,7 +7521,7 @@
         <v>42.095114600000002</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>4</v>
       </c>
@@ -7509,7 +7550,7 @@
         <v>41.7342133</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>2</v>
       </c>
@@ -7538,7 +7579,7 @@
         <v>41.764250199999999</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>2</v>
       </c>
@@ -7567,7 +7608,7 @@
         <v>41.776223700000003</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>2</v>
       </c>
@@ -7590,13 +7631,16 @@
         <v>11</v>
       </c>
       <c r="H212">
-        <v>1.5412363</v>
+        <v>2.1750390999999998</v>
       </c>
       <c r="I212">
-        <v>41.7056641</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41.980765900000002</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>2</v>
       </c>
@@ -7625,7 +7669,7 @@
         <v>41.716994700000001</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>2</v>
       </c>
@@ -7654,7 +7698,7 @@
         <v>41.736570800000003</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>2</v>
       </c>
@@ -7683,7 +7727,7 @@
         <v>41.702128600000002</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>2</v>
       </c>
@@ -7712,7 +7756,7 @@
         <v>41.597709899999998</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>2</v>
       </c>
@@ -7741,7 +7785,7 @@
         <v>41.636365699999999</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>2</v>
       </c>
@@ -7770,7 +7814,7 @@
         <v>41.601453399999997</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>2</v>
       </c>
@@ -7799,7 +7843,7 @@
         <v>41.625977800000001</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>2</v>
       </c>
@@ -7828,7 +7872,7 @@
         <v>41.6442397</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>2</v>
       </c>
@@ -7857,7 +7901,7 @@
         <v>41.655902900000001</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>2</v>
       </c>
@@ -7886,7 +7930,7 @@
         <v>41.517482899999997</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>2</v>
       </c>
@@ -7909,13 +7953,13 @@
         <v>11</v>
       </c>
       <c r="H223">
-        <v>-1.8059247</v>
+        <v>2.5001823999999999</v>
       </c>
       <c r="I223">
-        <v>47.612468900000003</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41.694367</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>2</v>
       </c>
@@ -7944,7 +7988,7 @@
         <v>41.598156299999999</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>2</v>
       </c>
@@ -7973,7 +8017,7 @@
         <v>41.518560399999998</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>2</v>
       </c>
@@ -8002,7 +8046,7 @@
         <v>41.500428700000001</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>2</v>
       </c>
@@ -8031,7 +8075,7 @@
         <v>41.4774648</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>2</v>
       </c>
@@ -8054,13 +8098,16 @@
         <v>11</v>
       </c>
       <c r="H228">
-        <v>1.6609381000000001</v>
+        <v>2.1750390999999998</v>
       </c>
       <c r="I228">
-        <v>41.5352891</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41.980765900000002</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>2</v>
       </c>
@@ -8089,7 +8136,7 @@
         <v>41.519476900000001</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>2</v>
       </c>
@@ -8118,7 +8165,7 @@
         <v>41.399380899999997</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>2</v>
       </c>
@@ -8147,7 +8194,7 @@
         <v>41.519035600000002</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>2</v>
       </c>
@@ -8176,7 +8223,7 @@
         <v>41.556148399999998</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>2</v>
       </c>
@@ -8205,7 +8252,7 @@
         <v>41.531934800000002</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>2</v>
       </c>
@@ -8228,13 +8275,16 @@
         <v>33</v>
       </c>
       <c r="H234">
-        <v>-0.13258449999999999</v>
+        <v>2.1750390999999998</v>
       </c>
       <c r="I234">
-        <v>38.940769299999999</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41.980765900000002</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>2</v>
       </c>
@@ -8263,7 +8313,7 @@
         <v>41.542813899999999</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>2</v>
       </c>
@@ -8292,7 +8342,7 @@
         <v>41.5632199</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>2</v>
       </c>
@@ -8321,7 +8371,7 @@
         <v>41.494138499999998</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>2</v>
       </c>
@@ -8350,7 +8400,7 @@
         <v>41.4784492</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>2</v>
       </c>
@@ -8379,7 +8429,7 @@
         <v>41.531905799999997</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>2</v>
       </c>
@@ -8408,7 +8458,7 @@
         <v>41.477394250000003</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>2</v>
       </c>
@@ -8437,7 +8487,7 @@
         <v>41.436568899999997</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>2</v>
       </c>
@@ -8466,7 +8516,7 @@
         <v>41.413803600000001</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>2</v>
       </c>
@@ -8495,7 +8545,7 @@
         <v>41.387734999999999</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>2</v>
       </c>
@@ -8518,13 +8568,16 @@
         <v>11</v>
       </c>
       <c r="H244">
-        <v>-0.56989889999999999</v>
+        <v>2.1750390999999998</v>
       </c>
       <c r="I244">
-        <v>39.290820099999998</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41.980765900000002</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>2</v>
       </c>
@@ -8553,7 +8606,7 @@
         <v>41.3615067</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>2</v>
       </c>
@@ -8582,7 +8635,7 @@
         <v>41.364461900000002</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>2</v>
       </c>
@@ -8611,7 +8664,7 @@
         <v>41.384458199999997</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>2</v>
       </c>
@@ -8640,7 +8693,7 @@
         <v>41.387557399999999</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>2</v>
       </c>
@@ -8669,7 +8722,7 @@
         <v>41.2532183</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>2</v>
       </c>
@@ -8698,7 +8751,7 @@
         <v>41.2454739</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>2</v>
       </c>
@@ -8727,7 +8780,7 @@
         <v>41.221188300000001</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>2</v>
       </c>
@@ -8756,7 +8809,7 @@
         <v>41.253288900000001</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>2</v>
       </c>
@@ -8785,7 +8838,7 @@
         <v>41.3103129</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>2</v>
       </c>
@@ -8814,7 +8867,7 @@
         <v>41.350503199999999</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>2</v>
       </c>
@@ -8843,7 +8896,7 @@
         <v>41.4045506</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>2</v>
       </c>
@@ -8872,7 +8925,7 @@
         <v>41.468175500000001</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>2</v>
       </c>
@@ -8901,7 +8954,7 @@
         <v>41.395160050000001</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>2</v>
       </c>
@@ -8930,7 +8983,7 @@
         <v>41.446341599999997</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>2</v>
       </c>
@@ -8959,7 +9012,7 @@
         <v>41.270167999999998</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>2</v>
       </c>
@@ -8982,13 +9035,16 @@
         <v>11</v>
       </c>
       <c r="H260">
-        <v>1.4542794000000001</v>
+        <v>2.1750390999999998</v>
       </c>
       <c r="I260">
-        <v>41.315182200000002</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41.980765900000002</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>2</v>
       </c>
@@ -9017,7 +9073,7 @@
         <v>41.229594800000001</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>2</v>
       </c>
@@ -9046,7 +9102,7 @@
         <v>41.204099300000003</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>2</v>
       </c>
@@ -9075,7 +9131,7 @@
         <v>41.127452900000002</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>2</v>
       </c>
@@ -9104,7 +9160,7 @@
         <v>41.423620200000002</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>2</v>
       </c>
@@ -9127,13 +9183,13 @@
         <v>33</v>
       </c>
       <c r="H265">
-        <v>3.3584673999999999</v>
+        <v>1.0874668000000001</v>
       </c>
       <c r="I265">
-        <v>47.912094000000003</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41.469698399999999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>2</v>
       </c>
@@ -9162,7 +9218,7 @@
         <v>41.329338999999997</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>2</v>
       </c>
@@ -9191,7 +9247,7 @@
         <v>41.395245099999997</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>2</v>
       </c>
@@ -9220,7 +9276,7 @@
         <v>41.423407099999999</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>2</v>
       </c>
@@ -9249,7 +9305,7 @@
         <v>41.477483499999998</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>2</v>
       </c>
@@ -9278,7 +9334,7 @@
         <v>41.372074099999999</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>2</v>
       </c>
@@ -9307,7 +9363,7 @@
         <v>41.2655697</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>2</v>
       </c>
@@ -9336,7 +9392,7 @@
         <v>41.282684400000001</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>2</v>
       </c>
@@ -9365,7 +9421,7 @@
         <v>41.377476600000001</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>2</v>
       </c>
@@ -9394,7 +9450,7 @@
         <v>41.347873</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>2</v>
       </c>
@@ -9423,7 +9479,7 @@
         <v>41.287120700000003</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>2</v>
       </c>
@@ -9446,13 +9502,16 @@
         <v>11</v>
       </c>
       <c r="H276">
-        <v>79.868328086633198</v>
+        <v>2.1750390999999998</v>
       </c>
       <c r="I276">
-        <v>22.929806299999999</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41.980765900000002</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>2</v>
       </c>
@@ -9481,7 +9540,7 @@
         <v>41.334612399999997</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>2</v>
       </c>
@@ -9504,13 +9563,16 @@
         <v>33</v>
       </c>
       <c r="H278">
-        <v>1.2471593000000001</v>
+        <v>2.1750390999999998</v>
       </c>
       <c r="I278">
-        <v>41.207132199999997</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41.980765900000002</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>2</v>
       </c>
@@ -9533,13 +9595,16 @@
         <v>11</v>
       </c>
       <c r="H279">
-        <v>-76.643799900000005</v>
+        <v>2.1750390999999998</v>
       </c>
       <c r="I279">
-        <v>20.370794499999999</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41.980765900000002</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>2</v>
       </c>
@@ -9562,13 +9627,17 @@
         <v>33</v>
       </c>
       <c r="H280">
-        <v>9.1896345999999998</v>
+        <v>2.1750390999999998</v>
       </c>
       <c r="I280">
-        <v>45.464194300000003</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41.980765900000002</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="L280" s="3"/>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>2</v>
       </c>
@@ -9597,7 +9666,7 @@
         <v>41.2426301</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>2</v>
       </c>
@@ -9626,7 +9695,7 @@
         <v>41.293588100000001</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>2</v>
       </c>
@@ -9655,7 +9724,7 @@
         <v>41.2687867</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>2</v>
       </c>
@@ -9684,7 +9753,7 @@
         <v>41.279808099999997</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>2</v>
       </c>
@@ -9713,7 +9782,7 @@
         <v>41.246760799999997</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>2</v>
       </c>
@@ -9742,7 +9811,7 @@
         <v>41.249288100000001</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>2</v>
       </c>
@@ -9765,13 +9834,16 @@
         <v>11</v>
       </c>
       <c r="H287">
-        <v>1.2183923000000001</v>
+        <v>2.1750390999999998</v>
       </c>
       <c r="I287">
-        <v>41.223573999999999</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41.980765900000002</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>2</v>
       </c>
@@ -9794,13 +9866,16 @@
         <v>33</v>
       </c>
       <c r="H288">
-        <v>6.9542094803734189</v>
+        <v>2.1750390999999998</v>
       </c>
       <c r="I288">
-        <v>44.374629050000003</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41.980765900000002</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>2</v>
       </c>
@@ -9829,7 +9904,7 @@
         <v>41.136284699999997</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>2</v>
       </c>
@@ -9858,7 +9933,7 @@
         <v>41.099156700000002</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>2</v>
       </c>
@@ -9887,7 +9962,7 @@
         <v>41.051518799999997</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>2</v>
       </c>
@@ -9915,8 +9990,9 @@
       <c r="I292">
         <v>41.130368599999997</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K292" s="3"/>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>2</v>
       </c>
@@ -9945,7 +10021,7 @@
         <v>41.112983300000003</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>2</v>
       </c>
@@ -9968,13 +10044,13 @@
         <v>11</v>
       </c>
       <c r="H294">
-        <v>1.0466915000000001</v>
+        <v>1.0458000000000001</v>
       </c>
       <c r="I294">
-        <v>41.201248999999997</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41.201590000000003</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>2</v>
       </c>
@@ -10003,7 +10079,7 @@
         <v>41.209976300000001</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>2</v>
       </c>
@@ -10032,7 +10108,7 @@
         <v>41.145797399999999</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>2</v>
       </c>
@@ -10061,7 +10137,7 @@
         <v>41.181796499999997</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>2</v>
       </c>
@@ -10090,7 +10166,7 @@
         <v>41.168084499999999</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>2</v>
       </c>
@@ -10119,7 +10195,7 @@
         <v>41.242594099999998</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>2</v>
       </c>
@@ -10148,7 +10224,7 @@
         <v>41.2948795</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>2</v>
       </c>
@@ -10171,13 +10247,13 @@
         <v>33</v>
       </c>
       <c r="H301">
-        <v>1.0032924000000001</v>
+        <v>1.0046299999999999</v>
       </c>
       <c r="I301">
-        <v>41.277251900000003</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41.277389999999997</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>2</v>
       </c>
@@ -10206,7 +10282,7 @@
         <v>41.228108400000004</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>2</v>
       </c>
@@ -10229,13 +10305,13 @@
         <v>11</v>
       </c>
       <c r="H303">
-        <v>1.0897995</v>
+        <v>1.0896170000000001</v>
       </c>
       <c r="I303">
-        <v>41.251865700000003</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41.251823000000002</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>2</v>
       </c>
@@ -10264,7 +10340,7 @@
         <v>41.196057400000001</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>2</v>
       </c>
@@ -10292,8 +10368,9 @@
       <c r="I305">
         <v>41.191452300000002</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J305" s="2"/>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>2</v>
       </c>
@@ -10316,13 +10393,13 @@
         <v>11</v>
       </c>
       <c r="H306">
-        <v>1.2082805000000001</v>
+        <v>1.2082809999999999</v>
       </c>
       <c r="I306">
-        <v>41.186597399999997</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41.186596999999999</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>2</v>
       </c>
@@ -10351,7 +10428,7 @@
         <v>41.208014900000002</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>2</v>
       </c>
@@ -10374,13 +10451,13 @@
         <v>11</v>
       </c>
       <c r="H308">
-        <v>1.3738261000000001</v>
+        <v>1.373399</v>
       </c>
       <c r="I308">
-        <v>41.182228199999997</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41.183038000000003</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>2</v>
       </c>
@@ -10408,8 +10485,9 @@
       <c r="I309">
         <v>41.551886099999997</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M309" s="2"/>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>2</v>
       </c>
@@ -10432,13 +10510,13 @@
         <v>11</v>
       </c>
       <c r="H310">
-        <v>2.4229295999999998</v>
+        <v>1.3264499999999999</v>
       </c>
       <c r="I310">
-        <v>42.633773400000003</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41.17539</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>2</v>
       </c>
@@ -10467,7 +10545,7 @@
         <v>41.407781399999998</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>2</v>
       </c>
